--- a/xlsx/斐濟_intext.xlsx
+++ b/xlsx/斐濟_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1223">
   <si>
     <t>斐濟</t>
   </si>
@@ -29,7 +29,7 @@
     <t>斐济国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_斐濟</t>
+    <t>体育运动_体育运动_橄榄球类运动_斐濟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E5%9B%BD%E5%BE%BD</t>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>萨武萨武</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B5%B7%E6%B4%8B%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>熱帶海洋氣候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E5%86%9B%E4%BA%8B</t>
@@ -4026,7 +4032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6922,7 +6928,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6951,7 +6957,7 @@
         <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -7009,7 +7015,7 @@
         <v>198</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -7038,7 +7044,7 @@
         <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -7067,7 +7073,7 @@
         <v>202</v>
       </c>
       <c r="G105" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7096,7 +7102,7 @@
         <v>204</v>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -7125,7 +7131,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -7154,7 +7160,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -7212,7 +7218,7 @@
         <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -7241,7 +7247,7 @@
         <v>214</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -7270,7 +7276,7 @@
         <v>216</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -7415,7 +7421,7 @@
         <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -7444,7 +7450,7 @@
         <v>228</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -7531,7 +7537,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -7560,7 +7566,7 @@
         <v>236</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -7589,7 +7595,7 @@
         <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7618,7 +7624,7 @@
         <v>240</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7676,7 +7682,7 @@
         <v>244</v>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -7705,7 +7711,7 @@
         <v>246</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -7734,7 +7740,7 @@
         <v>248</v>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -7763,7 +7769,7 @@
         <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7792,7 +7798,7 @@
         <v>252</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -7821,7 +7827,7 @@
         <v>254</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -7850,7 +7856,7 @@
         <v>256</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7937,7 +7943,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -7966,7 +7972,7 @@
         <v>264</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -8053,7 +8059,7 @@
         <v>270</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -8082,7 +8088,7 @@
         <v>272</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -8169,7 +8175,7 @@
         <v>278</v>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8198,7 +8204,7 @@
         <v>280</v>
       </c>
       <c r="G144" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -8227,7 +8233,7 @@
         <v>282</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -8401,7 +8407,7 @@
         <v>294</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8430,7 +8436,7 @@
         <v>296</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -8546,7 +8552,7 @@
         <v>304</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -8633,7 +8639,7 @@
         <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8662,7 +8668,7 @@
         <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8691,7 +8697,7 @@
         <v>314</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8836,7 +8842,7 @@
         <v>324</v>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8865,7 +8871,7 @@
         <v>326</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -8952,7 +8958,7 @@
         <v>332</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -8981,7 +8987,7 @@
         <v>334</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -9010,7 +9016,7 @@
         <v>336</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -9039,7 +9045,7 @@
         <v>338</v>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9068,7 +9074,7 @@
         <v>340</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -9097,7 +9103,7 @@
         <v>342</v>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -9126,7 +9132,7 @@
         <v>344</v>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -9155,7 +9161,7 @@
         <v>346</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -9184,7 +9190,7 @@
         <v>348</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -9329,7 +9335,7 @@
         <v>358</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -9358,7 +9364,7 @@
         <v>360</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -9445,7 +9451,7 @@
         <v>366</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9474,7 +9480,7 @@
         <v>368</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -9532,7 +9538,7 @@
         <v>372</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -9619,7 +9625,7 @@
         <v>378</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -9677,7 +9683,7 @@
         <v>382</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9706,7 +9712,7 @@
         <v>384</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9735,7 +9741,7 @@
         <v>386</v>
       </c>
       <c r="G197" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9764,7 +9770,7 @@
         <v>388</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -9967,7 +9973,7 @@
         <v>402</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9996,7 +10002,7 @@
         <v>404</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10373,7 +10379,7 @@
         <v>430</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10402,7 +10408,7 @@
         <v>432</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10431,7 +10437,7 @@
         <v>434</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10460,7 +10466,7 @@
         <v>436</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -11533,7 +11539,7 @@
         <v>510</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -11591,7 +11597,7 @@
         <v>514</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11794,7 +11800,7 @@
         <v>528</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11852,7 +11858,7 @@
         <v>532</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -12316,7 +12322,7 @@
         <v>564</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -12345,7 +12351,7 @@
         <v>566</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -12751,7 +12757,7 @@
         <v>594</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12780,7 +12786,7 @@
         <v>596</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12896,7 +12902,7 @@
         <v>604</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12954,7 +12960,7 @@
         <v>608</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -13331,7 +13337,7 @@
         <v>634</v>
       </c>
       <c r="G321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13360,7 +13366,7 @@
         <v>636</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13418,7 +13424,7 @@
         <v>640</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13476,7 +13482,7 @@
         <v>644</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13505,7 +13511,7 @@
         <v>646</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13534,7 +13540,7 @@
         <v>648</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13563,7 +13569,7 @@
         <v>650</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13592,7 +13598,7 @@
         <v>652</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13621,7 +13627,7 @@
         <v>654</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13650,7 +13656,7 @@
         <v>656</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -14201,7 +14207,7 @@
         <v>694</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -14230,7 +14236,7 @@
         <v>696</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -14375,7 +14381,7 @@
         <v>706</v>
       </c>
       <c r="G357" t="n">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14404,7 +14410,7 @@
         <v>708</v>
       </c>
       <c r="G358" t="n">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14433,7 +14439,7 @@
         <v>710</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -16753,7 +16759,7 @@
         <v>870</v>
       </c>
       <c r="G439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -16811,7 +16817,7 @@
         <v>874</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -18864,10 +18870,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>343</v>
+        <v>1015</v>
       </c>
       <c r="F512" t="s">
-        <v>344</v>
+        <v>1016</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18893,10 +18899,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1015</v>
+        <v>345</v>
       </c>
       <c r="F513" t="s">
-        <v>1016</v>
+        <v>346</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18957,7 +18963,7 @@
         <v>1020</v>
       </c>
       <c r="G515" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -18986,7 +18992,7 @@
         <v>1022</v>
       </c>
       <c r="G516" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -19328,10 +19334,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>339</v>
+        <v>1045</v>
       </c>
       <c r="F528" t="s">
-        <v>340</v>
+        <v>1046</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19357,10 +19363,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1045</v>
+        <v>341</v>
       </c>
       <c r="F529" t="s">
-        <v>1046</v>
+        <v>342</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19473,10 +19479,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="F533" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19502,10 +19508,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>367</v>
+        <v>1031</v>
       </c>
       <c r="F534" t="s">
-        <v>368</v>
+        <v>1032</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19531,10 +19537,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1053</v>
+        <v>369</v>
       </c>
       <c r="F535" t="s">
-        <v>1054</v>
+        <v>370</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19972,7 +19978,7 @@
         <v>1084</v>
       </c>
       <c r="G550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -20024,10 +20030,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>319</v>
+        <v>1087</v>
       </c>
       <c r="F552" t="s">
-        <v>320</v>
+        <v>1088</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -20053,13 +20059,13 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1087</v>
+        <v>321</v>
       </c>
       <c r="F553" t="s">
-        <v>1088</v>
+        <v>322</v>
       </c>
       <c r="G553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20726,7 +20732,7 @@
         <v>1134</v>
       </c>
       <c r="G576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20755,7 +20761,7 @@
         <v>1136</v>
       </c>
       <c r="G577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -21770,7 +21776,7 @@
         <v>1206</v>
       </c>
       <c r="G612" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -21799,7 +21805,7 @@
         <v>1208</v>
       </c>
       <c r="G613" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -21979,6 +21985,35 @@
         <v>4</v>
       </c>
       <c r="I619" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1</v>
+      </c>
+      <c r="D620" t="n">
+        <v>619</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1</v>
+      </c>
+      <c r="H620" t="s">
+        <v>4</v>
+      </c>
+      <c r="I620" t="n">
         <v>3</v>
       </c>
     </row>
